--- a/Bangalore_MTSP_40_Locations.xlsx
+++ b/Bangalore_MTSP_40_Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C155FBC-C099-4AB2-9F12-9CE647ECE5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359E624-1C5C-4C17-A7D3-95A50AC1DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,27 @@
     <sheet name="T" sheetId="3" r:id="rId3"/>
     <sheet name="I" sheetId="4" r:id="rId4"/>
     <sheet name="F" sheetId="5" r:id="rId5"/>
+    <sheet name="Traffic_Segments" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Location</t>
   </si>
@@ -154,12 +168,30 @@
   <si>
     <t>Frazer Town</t>
   </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>12-18</t>
+  </si>
+  <si>
+    <t>7-33</t>
+  </si>
+  <si>
+    <t>3-27</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +206,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,11 +249,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +567,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15673,8 +15717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20562,4 +20606,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3A5CA6-7A5E-43F0-96FB-B11A1D90D5AD}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1.3</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>